--- a/techniqo/data_new_ticker/MINDACORP.xlsx
+++ b/techniqo/data_new_ticker/MINDACORP.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1362"/>
+  <dimension ref="A1:G1364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48056,6 +48056,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1363" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>78.45</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>74.15000000000001</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>74.55</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>614198</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1364" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>685260</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/MINDACORP.xlsx
+++ b/techniqo/data_new_ticker/MINDACORP.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1364"/>
+  <dimension ref="A1:G1366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48106,6 +48106,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1365" t="n">
+        <v>74.65000000000001</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>75.34999999999999</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>349404</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1366" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>73.34999999999999</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>72.45</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>273295</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
